--- a/biology/Médecine/John_Northleigh/John_Northleigh.xlsx
+++ b/biology/Médecine/John_Northleigh/John_Northleigh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Northleigh (1657-17 janvier 1704) est un médecin anglais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Northleigh, né à Hambourg en 1657, est le fils de John Northleigh, marchand, originaire d'Exminster, Devonshire. Selon une autre source, il serait né à Cadeleigh, Devonshire. Il s'inscrit au Exeter College, Oxford le 23 mars 1674-5, à l'âge de 17 ans, et obtient son diplôme de B.C.L. en 1681. En 1682, il est étudiant au Middle Temple, et la même année, il est incorporé LL.B. au Magdalene College, Cambridge (Foster, Alumni Oxon. 1500-1714, iii. 1078). Il est ensuite élu membre du King's College, Cambridge, obtient son diplôme de LL.D. en 1687, et est finalement M.D. En mai 1688, il est un candidat malheureux pour une bourse au All Souls' College, Oxford. Il est un partisan de Jacques II et écrit avec habileté pour le défendre. Pendant de nombreuses années, il exerce à Exeter, mais il semble accorder plus d'attention à la théologie polémique qu'à sa profession. Il est un fervent défenseur de l'Église d'Angleterre et se distingue par divers écrits contre les indépendants et les presbytériens. Il meurt le 17 et est enterré dans la cathédrale d'Exeter le 24 janvier 1704, laissant avec son épouse Frances (décédée en 1715) un fils John (1701–1726). Un monument à leur mémoire est placé sur le côté sud de la chapelle de la Vierge dans la cathédrale d'Exeter.
 </t>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">"Exercitationes Philologicae tres: prima Infanticidium, poema credulam exprimens matrem … prolem suam interfecisse. Secunda Spes extatica … Tertia Philosophia vindicata,’ &amp;c., in-quarto, Oxford, 1681.
 'Le Parallèle, ou la nouvelle et fallacieuse Association d'un ancien Covenant rebelle ; aboutissant à une disparité entre un vrai patriote et un Associateur factieux » [anonyme], in-folio, Londres, 1682, vivement recommandé par le Dr. Laurence Womack dans sa « Lettre contenant une justification supplémentaire de l'Église d'Angleterre contre les Dissenters ', 1682 (p. 59).
